--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B0FF74-4CE4-455A-918C-E9EAFEC30491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB42414-1367-4B92-A51F-6317EA6A8E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,34 @@
   </si>
   <si>
     <t>날붙이 이용하여 근접 공격을 합니다.\n적에게 날붙이의 아픔을 맞보여주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicDefence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,6 +109,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -157,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +205,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -454,64 +498,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFD4994-7B30-4537-97A9-4C5850CC400A}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="130.75" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="10" customWidth="1"/>
+    <col min="4" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="14.125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB42414-1367-4B92-A51F-6317EA6A8E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF02DDE-160B-4B5E-9987-E3B6A5B16856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍검독뎀충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍검 및 독을 이용하여 근적 공격을 합니다.\n무기가2개!데미지도2배!무서움도2배!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,15 +506,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFD4994-7B30-4537-97A9-4C5850CC400A}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="90.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="10" customWidth="1"/>
     <col min="4" max="5" width="9" style="10"/>
@@ -607,10 +615,10 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <v>0.7</v>
@@ -669,6 +677,32 @@
       </c>
       <c r="H6" s="9">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF02DDE-160B-4B5E-9987-E3B6A5B16856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF8466-9A70-4D5B-B6C3-B8412689F8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
+    <sheet name="CreateStat" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +111,26 @@
   </si>
   <si>
     <t>쌍검 및 독을 이용하여 근적 공격을 합니다.\n무기가2개!데미지도2배!무서움도2배!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,8 +138,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -196,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,6 +248,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -508,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFD4994-7B30-4537-97A9-4C5850CC400A}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -710,4 +735,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B29F3C-3FB5-40EC-90E7-95D5C17CAEE7}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="10" customWidth="1"/>
+    <col min="2" max="3" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF8466-9A70-4D5B-B6C3-B8412689F8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76C711A-F784-4617-8BCB-256B665F1F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
-    <sheet name="CreateStat" sheetId="6" r:id="rId2"/>
+    <sheet name="CharacterCreateStat" sheetId="6" r:id="rId2"/>
+    <sheet name="CharacterCreateGear" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +132,47 @@
   </si>
   <si>
     <t>int16_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftHand</t>
+  </si>
+  <si>
+    <t>RightHand</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoulder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,11 +256,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +312,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B29F3C-3FB5-40EC-90E7-95D5C17CAEE7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -833,4 +901,231 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781894E6-78A1-4138-A136-56A63FE26827}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="11">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76C711A-F784-4617-8BCB-256B665F1F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FA60AD-CBC5-44F7-9375-707FFFCD16CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
     <sheet name="CharacterCreateStat" sheetId="6" r:id="rId2"/>
     <sheet name="CharacterCreateGear" sheetId="7" r:id="rId3"/>
+    <sheet name="CharacterCalculateStat" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +174,22 @@
   </si>
   <si>
     <t>uint8_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT *</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,9 +197,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -280,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +336,22 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +636,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -702,21 +736,27 @@
         <v>9</v>
       </c>
       <c r="C4" s="9">
+        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!B$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!B$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!B$6))) / 100</f>
         <v>0.8</v>
       </c>
       <c r="D4" s="9">
+        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!C$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!C$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!C$6))) / 100</f>
         <v>0.2</v>
       </c>
       <c r="E4" s="9">
+        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!D$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!D$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!D$6))) / 100</f>
         <v>1</v>
       </c>
       <c r="F4" s="9">
+        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!E$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!E$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!E$6))) / 100</f>
         <v>0</v>
       </c>
       <c r="G4" s="9">
+        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!F$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!F$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!F$6))) / 100</f>
         <v>0.7</v>
       </c>
       <c r="H4" s="9">
+        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!G$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!G$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!G$6))) / 100</f>
         <v>0.3</v>
       </c>
     </row>
@@ -728,22 +768,28 @@
         <v>7</v>
       </c>
       <c r="C5" s="9">
-        <v>0.5</v>
+        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!B$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!B$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!B$6))) / 100</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D5" s="9">
-        <v>0.5</v>
+        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!C$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!C$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!C$6))) / 100</f>
+        <v>0.44</v>
       </c>
       <c r="E5" s="9">
-        <v>0.6</v>
+        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!D$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!D$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!D$6))) / 100</f>
+        <v>0.84</v>
       </c>
       <c r="F5" s="9">
-        <v>0.4</v>
+        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!E$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!E$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!E$6))) / 100</f>
+        <v>0.16</v>
       </c>
       <c r="G5" s="9">
-        <v>0.5</v>
+        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!F$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!F$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!F$6))) / 100</f>
+        <v>0.62</v>
       </c>
       <c r="H5" s="9">
-        <v>0.5</v>
+        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!G$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!G$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!G$6))) / 100</f>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -754,22 +800,28 @@
         <v>8</v>
       </c>
       <c r="C6" s="9">
-        <v>0.3</v>
+        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!B$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!B$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!B$6))) / 100</f>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D6" s="9">
-        <v>0.7</v>
+        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!C$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!C$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!C$6))) / 100</f>
+        <v>0.70599999999999996</v>
       </c>
       <c r="E6" s="9">
-        <v>0</v>
+        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!D$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!D$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!D$6))) / 100</f>
+        <v>0.03</v>
       </c>
       <c r="F6" s="9">
+        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!E$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!E$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!E$6))) / 100</f>
         <v>1</v>
       </c>
       <c r="G6" s="9">
-        <v>0.3</v>
+        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!F$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!F$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!F$6))) / 100</f>
+        <v>0.32100000000000001</v>
       </c>
       <c r="H6" s="9">
-        <v>0.7</v>
+        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!G$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!G$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!G$6))) / 100</f>
+        <v>0.70900000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -780,21 +832,27 @@
         <v>18</v>
       </c>
       <c r="C7" s="9">
-        <v>0.4</v>
+        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!B$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!B$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!B$6))) / 100</f>
+        <v>0.5</v>
       </c>
       <c r="D7" s="9">
+        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!C$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!C$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!C$6))) / 100</f>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="9">
+        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!D$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!D$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!D$6))) / 100</f>
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="9">
+        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!E$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!E$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!E$6))) / 100</f>
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="9">
+        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!F$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!F$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!F$6))) / 100</f>
         <v>0.6</v>
       </c>
-      <c r="E7" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.4</v>
-      </c>
       <c r="H7" s="9">
+        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!G$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!G$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!G$6))) / 100</f>
         <v>0.4</v>
       </c>
     </row>
@@ -807,21 +865,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B29F3C-3FB5-40EC-90E7-95D5C17CAEE7}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="10" customWidth="1"/>
-    <col min="2" max="3" width="9" style="10"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>19</v>
@@ -829,21 +885,27 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
-        <v>23</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>23</v>
@@ -851,48 +913,63 @@
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="11">
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
         <v>10</v>
       </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
       <c r="C4" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="11">
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="C5" s="11">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="11">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
         <v>0.3</v>
       </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
       <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="11">
-        <v>0</v>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="C7" s="11">
+      <c r="D7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -905,24 +982,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781894E6-78A1-4138-A136-56A63FE26827}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>24</v>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>24</v>
@@ -948,39 +1027,45 @@
       <c r="I1" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="J1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
-        <v>34</v>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>34</v>
@@ -1006,22 +1091,25 @@
       <c r="I3" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="11">
-        <v>1</v>
+      <c r="J3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
       <c r="D4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -1030,27 +1118,30 @@
         <v>1</v>
       </c>
       <c r="H4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="11">
-        <v>0</v>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
       </c>
       <c r="D5" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
@@ -1059,27 +1150,30 @@
         <v>1</v>
       </c>
       <c r="H5" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="11">
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
         <v>0.3</v>
       </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
       <c r="C6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="11">
         <v>1</v>
@@ -1088,15 +1182,18 @@
         <v>1</v>
       </c>
       <c r="H6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="11">
-        <v>1</v>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -1105,10 +1202,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="11">
         <v>1</v>
@@ -1117,10 +1214,177 @@
         <v>1</v>
       </c>
       <c r="H7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="11">
         <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76C42D0-A3E3-43F7-9B02-6BA60347AC84}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="15" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="19">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>10</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="19">
+        <v>5</v>
+      </c>
+      <c r="C5" s="19">
+        <v>5</v>
+      </c>
+      <c r="D5" s="19">
+        <v>8</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19">
+        <v>6</v>
+      </c>
+      <c r="G5" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19">
+        <v>7</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>10</v>
+      </c>
+      <c r="F6" s="19">
+        <v>3</v>
+      </c>
+      <c r="G6" s="19">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FA60AD-CBC5-44F7-9375-707FFFCD16CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C210B9B-3F88-4BD7-A4B7-69F7F92438A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
     <sheet name="CharacterCreateStat" sheetId="6" r:id="rId2"/>
-    <sheet name="CharacterCreateGear" sheetId="7" r:id="rId3"/>
-    <sheet name="CharacterCalculateStat" sheetId="8" r:id="rId4"/>
+    <sheet name="CharacterCreateSpeedStat" sheetId="9" r:id="rId3"/>
+    <sheet name="CharacterCreateGear" sheetId="7" r:id="rId4"/>
+    <sheet name="CharacterCalculateStat" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="42">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +191,18 @@
   </si>
   <si>
     <t>INT *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCastingSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,6 +994,127 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B152BEC-73C5-497B-AF21-0A9D9B3E65C7}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781894E6-78A1-4138-A136-56A63FE26827}">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -1230,12 +1364,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76C42D0-A3E3-43F7-9B02-6BA60347AC84}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1254,22 +1388,22 @@
         <v>35</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C210B9B-3F88-4BD7-A4B7-69F7F92438A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B00BC-87FF-43FE-ACEC-F1DF12768FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
     <sheet name="CharacterCreateStat" sheetId="6" r:id="rId2"/>
     <sheet name="CharacterCreateSpeedStat" sheetId="9" r:id="rId3"/>
     <sheet name="CharacterCreateGear" sheetId="7" r:id="rId4"/>
-    <sheet name="CharacterCalculateStat" sheetId="8" r:id="rId5"/>
+    <sheet name="CharacterAbilityByStat" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFD4994-7B30-4537-97A9-4C5850CC400A}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -749,27 +749,27 @@
         <v>9</v>
       </c>
       <c r="C4" s="9">
-        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!B$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!B$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!B$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!B$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!B$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!B$6))) / 100</f>
         <v>0.8</v>
       </c>
       <c r="D4" s="9">
-        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!C$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!C$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!C$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!C$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!C$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!C$6))) / 100</f>
         <v>0.2</v>
       </c>
       <c r="E4" s="9">
-        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!D$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!D$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!D$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!D$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!D$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!D$6))) / 100</f>
         <v>1</v>
       </c>
       <c r="F4" s="9">
-        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!E$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!E$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!E$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!E$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!E$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!E$6))) / 100</f>
         <v>0</v>
       </c>
       <c r="G4" s="9">
-        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!F$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!F$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!F$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!F$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!F$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!F$6))) / 100</f>
         <v>0.7</v>
       </c>
       <c r="H4" s="9">
-        <f>(((CharacterCreateStat!$B4) * (CharacterCalculateStat!G$4)) + ((CharacterCreateStat!$C4) * (CharacterCalculateStat!G$5)) + ((CharacterCreateStat!$D4) * (CharacterCalculateStat!G$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!G$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!G$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!G$6))) / 100</f>
         <v>0.3</v>
       </c>
     </row>
@@ -781,27 +781,27 @@
         <v>7</v>
       </c>
       <c r="C5" s="9">
-        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!B$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!B$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!B$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!B$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!B$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!B$6))) / 100</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="D5" s="9">
-        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!C$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!C$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!C$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!C$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!C$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!C$6))) / 100</f>
         <v>0.44</v>
       </c>
       <c r="E5" s="9">
-        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!D$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!D$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!D$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!D$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!D$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!D$6))) / 100</f>
         <v>0.84</v>
       </c>
       <c r="F5" s="9">
-        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!E$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!E$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!E$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!E$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!E$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!E$6))) / 100</f>
         <v>0.16</v>
       </c>
       <c r="G5" s="9">
-        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!F$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!F$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!F$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!F$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!F$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!F$6))) / 100</f>
         <v>0.62</v>
       </c>
       <c r="H5" s="9">
-        <f>(((CharacterCreateStat!$B5) * (CharacterCalculateStat!G$4)) + ((CharacterCreateStat!$C5) * (CharacterCalculateStat!G$5)) + ((CharacterCreateStat!$D5) * (CharacterCalculateStat!G$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!G$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!G$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!G$6))) / 100</f>
         <v>0.38</v>
       </c>
     </row>
@@ -813,27 +813,27 @@
         <v>8</v>
       </c>
       <c r="C6" s="9">
-        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!B$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!B$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!B$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!B$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!B$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!B$6))) / 100</f>
         <v>0.32400000000000001</v>
       </c>
       <c r="D6" s="9">
-        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!C$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!C$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!C$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!C$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!C$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!C$6))) / 100</f>
         <v>0.70599999999999996</v>
       </c>
       <c r="E6" s="9">
-        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!D$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!D$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!D$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!D$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!D$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!D$6))) / 100</f>
         <v>0.03</v>
       </c>
       <c r="F6" s="9">
-        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!E$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!E$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!E$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!E$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!E$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!E$6))) / 100</f>
         <v>1</v>
       </c>
       <c r="G6" s="9">
-        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!F$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!F$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!F$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!F$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!F$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!F$6))) / 100</f>
         <v>0.32100000000000001</v>
       </c>
       <c r="H6" s="9">
-        <f>(((CharacterCreateStat!$B6) * (CharacterCalculateStat!G$4)) + ((CharacterCreateStat!$C6) * (CharacterCalculateStat!G$5)) + ((CharacterCreateStat!$D6) * (CharacterCalculateStat!G$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!G$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!G$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!G$6))) / 100</f>
         <v>0.70900000000000007</v>
       </c>
     </row>
@@ -845,27 +845,27 @@
         <v>18</v>
       </c>
       <c r="C7" s="9">
-        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!B$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!B$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!B$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!B$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!B$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!B$6))) / 100</f>
         <v>0.5</v>
       </c>
       <c r="D7" s="9">
-        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!C$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!C$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!C$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!C$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!C$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!C$6))) / 100</f>
         <v>0.5</v>
       </c>
       <c r="E7" s="9">
-        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!D$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!D$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!D$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!D$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!D$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!D$6))) / 100</f>
         <v>0.8</v>
       </c>
       <c r="F7" s="9">
-        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!E$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!E$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!E$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!E$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!E$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!E$6))) / 100</f>
         <v>0.2</v>
       </c>
       <c r="G7" s="9">
-        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!F$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!F$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!F$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!F$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!F$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!F$6))) / 100</f>
         <v>0.6</v>
       </c>
       <c r="H7" s="9">
-        <f>(((CharacterCreateStat!$B7) * (CharacterCalculateStat!G$4)) + ((CharacterCreateStat!$C7) * (CharacterCalculateStat!G$5)) + ((CharacterCreateStat!$D7) * (CharacterCalculateStat!G$6))) / 100</f>
+        <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!G$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!G$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!G$6))) / 100</f>
         <v>0.4</v>
       </c>
     </row>
@@ -1368,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76C42D0-A3E3-43F7-9B02-6BA60347AC84}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B00BC-87FF-43FE-ACEC-F1DF12768FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61E227F-EE7F-43CF-8552-28A2CEDCEB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int16_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>All</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,6 +199,10 @@
   </si>
   <si>
     <t>MagicCastingSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFD4994-7B30-4537-97A9-4C5850CC400A}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -880,7 +880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B29F3C-3FB5-40EC-90E7-95D5C17CAEE7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -890,7 +892,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>19</v>
@@ -921,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1011,7 +1013,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>19</v>
@@ -1028,13 +1030,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1042,13 +1044,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1135,34 +1137,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1170,31 +1172,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1202,31 +1204,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1385,7 +1387,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>19</v>
@@ -1434,27 +1436,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="19">
         <v>8</v>
@@ -1477,7 +1479,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="19">
         <v>5</v>
@@ -1500,7 +1502,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="19">
         <v>3</v>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61E227F-EE7F-43CF-8552-28A2CEDCEB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470B0C8-0745-4D98-8A7E-F97043D24009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="5535" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>int32_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B29F3C-3FB5-40EC-90E7-95D5C17CAEE7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -999,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B152BEC-73C5-497B-AF21-0A9D9B3E65C7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1044,26 +1048,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>10</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>10</v>
       </c>
     </row>
@@ -1071,13 +1075,13 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>12</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>12</v>
       </c>
     </row>
@@ -1085,13 +1089,13 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>10</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>8</v>
       </c>
     </row>
@@ -1099,13 +1103,13 @@
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>15</v>
       </c>
     </row>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470B0C8-0745-4D98-8A7E-F97043D24009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA357A4C-C764-4505-B07B-178DE28E0979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="5535" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1068,7 +1068,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9">
-        <v>10</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1082,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="9">
-        <v>12</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="9">
-        <v>8</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA357A4C-C764-4505-B07B-178DE28E0979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC921F7D-BE32-4D55-A434-A032D15FFCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20205" yWindow="7815" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="CharacterCreateSpeedStat" sheetId="9" r:id="rId3"/>
     <sheet name="CharacterCreateGear" sheetId="7" r:id="rId4"/>
     <sheet name="CharacterAbilityByStat" sheetId="8" r:id="rId5"/>
+    <sheet name="CharacterSkill" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +208,42 @@
   </si>
   <si>
     <t>float_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내려치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활쏘기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법화살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAnimationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,6 +406,9 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +925,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1003,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B152BEC-73C5-497B-AF21-0A9D9B3E65C7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -1375,7 +1415,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1532,4 +1572,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30A4D0-487C-4F7B-98F5-50B611F676D1}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC921F7D-BE32-4D55-A434-A032D15FFCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB8E52A-4D2A-43ED-9D72-51E260A08B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20205" yWindow="7815" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1653,7 +1653,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1675,8 +1675,8 @@
       <c r="F4" s="11">
         <v>1</v>
       </c>
-      <c r="G4" s="9">
-        <v>1.3</v>
+      <c r="G4" s="11">
+        <v>1300</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1698,8 +1698,8 @@
       <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="9">
-        <v>1.8</v>
+      <c r="G5" s="11">
+        <v>1800</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1721,8 +1721,8 @@
       <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="9">
-        <v>1.3</v>
+      <c r="G6" s="11">
+        <v>1300</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1744,8 +1744,8 @@
       <c r="F7" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="9">
-        <v>0.9</v>
+      <c r="G7" s="11">
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB8E52A-4D2A-43ED-9D72-51E260A08B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCA97D1-DA6A-4233-88F9-EFD1B528E57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1576,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30A4D0-487C-4F7B-98F5-50B611F676D1}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1587,7 +1587,7 @@
     <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1609,8 +1609,14 @@
       <c r="G1" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1632,8 +1638,14 @@
       <c r="G2" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1655,8 +1667,14 @@
       <c r="G3" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -1678,8 +1696,14 @@
       <c r="G4" s="11">
         <v>1300</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1701,8 +1725,14 @@
       <c r="G5" s="11">
         <v>1800</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1724,8 +1754,14 @@
       <c r="G6" s="11">
         <v>1300</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1746,6 +1782,12 @@
       </c>
       <c r="G7" s="11">
         <v>900</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCA97D1-DA6A-4233-88F9-EFD1B528E57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6A87C4-AB53-4B1E-866C-A64215FF0ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28845" yWindow="3060" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>CoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeDir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1576,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30A4D0-487C-4F7B-98F5-50B611F676D1}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1587,7 +1591,7 @@
     <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1615,8 +1619,11 @@
       <c r="I1" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1633,19 +1640,22 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1665,7 +1675,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>41</v>
@@ -1673,8 +1683,11 @@
       <c r="I3" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -1694,16 +1707,19 @@
         <v>1</v>
       </c>
       <c r="G4" s="11">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11">
         <v>1300</v>
       </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
       <c r="I4" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1723,16 +1739,19 @@
         <v>1</v>
       </c>
       <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
         <v>1800</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
       <c r="I5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1752,16 +1771,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
         <v>1300</v>
       </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
       <c r="I6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1781,12 +1803,15 @@
         <v>1</v>
       </c>
       <c r="G7" s="11">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11">
         <v>900</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
       <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6A87C4-AB53-4B1E-866C-A64215FF0ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3615965B-68BB-460A-B1F4-204CED502778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28845" yWindow="3060" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>RangeDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefenceType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1580,18 +1592,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30A4D0-487C-4F7B-98F5-50B611F676D1}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1607,7 +1622,7 @@
       <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="20" t="s">
@@ -1622,8 +1637,17 @@
       <c r="J1" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1637,25 +1661,34 @@
         <v>50</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1669,25 +1702,34 @@
         <v>33</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="G3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -1701,25 +1743,34 @@
         <v>1</v>
       </c>
       <c r="E4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
       </c>
       <c r="G4" s="11">
+        <v>6</v>
+      </c>
+      <c r="H4" s="11">
         <v>4</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>4</v>
+      </c>
+      <c r="K4" s="11">
         <v>1300</v>
       </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1733,25 +1784,34 @@
         <v>1</v>
       </c>
       <c r="E5" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" s="11">
+        <v>4</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
         <v>1800</v>
       </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1765,25 +1825,34 @@
         <v>1</v>
       </c>
       <c r="E6" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="11">
         <v>1</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H6" s="11">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
         <v>1300</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1797,21 +1866,30 @@
         <v>1</v>
       </c>
       <c r="E7" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="11">
         <v>1</v>
       </c>
       <c r="G7" s="11">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11">
+        <v>4</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
         <v>3</v>
       </c>
-      <c r="H7" s="11">
+      <c r="K7" s="11">
         <v>900</v>
       </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3615965B-68BB-460A-B1F4-204CED502778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0460A2D-BA0D-41CD-8965-23D3E91DA5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1755,7 +1755,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="11">
         <v>4</v>
@@ -1796,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="11">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="11">
         <v>1</v>
@@ -1878,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="11">
         <v>3</v>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0460A2D-BA0D-41CD-8965-23D3E91DA5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C64C7-5BD0-4661-B3E1-65822E3C4740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30240" yWindow="3105" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="11">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="L4" s="11">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="11">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L5" s="11">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="11">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L6" s="11">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="11">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L7" s="11">
         <v>0</v>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C64C7-5BD0-4661-B3E1-65822E3C4740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7633505-5420-4179-A39C-4720DE618B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="3105" windowWidth="28800" windowHeight="15345" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
-    <sheet name="CharacterCreateStat" sheetId="6" r:id="rId2"/>
-    <sheet name="CharacterCreateSpeedStat" sheetId="9" r:id="rId3"/>
-    <sheet name="CharacterCreateGear" sheetId="7" r:id="rId4"/>
-    <sheet name="CharacterAbilityByStat" sheetId="8" r:id="rId5"/>
-    <sheet name="CharacterSkill" sheetId="11" r:id="rId6"/>
+    <sheet name="CharacterLevel" sheetId="12" r:id="rId2"/>
+    <sheet name="CharacterCreateStat" sheetId="6" r:id="rId3"/>
+    <sheet name="CharacterCreateSpeedStat" sheetId="9" r:id="rId4"/>
+    <sheet name="CharacterCreateGear" sheetId="7" r:id="rId5"/>
+    <sheet name="CharacterAbilityByStat" sheetId="8" r:id="rId6"/>
+    <sheet name="CharacterSkill" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +261,25 @@
   </si>
   <si>
     <t>DefenceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8_t</t>
+  </si>
+  <si>
+    <t>int64_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxEXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonusPoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,12 +957,615 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A5111-83AF-41C8-82E3-06AA1F074A7C}">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>100</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>150</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <v>500</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <v>900</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3000</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11">
+        <v>8000</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11">
+        <v>14000</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11">
+        <v>18000</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11">
+        <v>20000</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11">
+        <v>23000</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11">
+        <v>25000</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11">
+        <v>40000</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11">
+        <v>45000</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="11">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11">
+        <v>48000</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11">
+        <v>50000</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11">
+        <v>60000</v>
+      </c>
+      <c r="C23" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11">
+        <v>80000</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="11">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11">
+        <v>82000</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11">
+        <v>85000</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="11">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11">
+        <v>90000</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="11">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11">
+        <v>120000</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="11">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11">
+        <v>140000</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11">
+        <v>180000</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="11">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11">
+        <v>200000</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="11">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11">
+        <v>250000</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11">
+        <v>30</v>
+      </c>
+      <c r="B33" s="11">
+        <v>290000</v>
+      </c>
+      <c r="C33" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="11">
+        <v>31</v>
+      </c>
+      <c r="B34" s="11">
+        <v>330000</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="11">
+        <v>32</v>
+      </c>
+      <c r="B35" s="11">
+        <v>400000</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="11">
+        <v>33</v>
+      </c>
+      <c r="B36" s="11">
+        <v>430000</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="11">
+        <v>34</v>
+      </c>
+      <c r="B37" s="11">
+        <v>480000</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="11">
+        <v>35</v>
+      </c>
+      <c r="B38" s="11">
+        <v>520000</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="11">
+        <v>36</v>
+      </c>
+      <c r="B39" s="11">
+        <v>550000</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="11">
+        <v>37</v>
+      </c>
+      <c r="B40" s="11">
+        <v>580000</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="11">
+        <v>38</v>
+      </c>
+      <c r="B41" s="11">
+        <v>630000</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="11">
+        <v>39</v>
+      </c>
+      <c r="B42" s="11">
+        <v>650000</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11">
+        <v>40</v>
+      </c>
+      <c r="B43" s="11">
+        <v>680000</v>
+      </c>
+      <c r="C43" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="11">
+        <v>41</v>
+      </c>
+      <c r="B44" s="11">
+        <v>720000</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11">
+        <v>42</v>
+      </c>
+      <c r="B45" s="11">
+        <v>770000</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="11">
+        <v>43</v>
+      </c>
+      <c r="B46" s="11">
+        <v>850000</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="11">
+        <v>44</v>
+      </c>
+      <c r="B47" s="11">
+        <v>900000</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="11">
+        <v>45</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="C48" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="11">
+        <v>46</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1300000</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="11">
+        <v>47</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1500000</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="11">
+        <v>48</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="11">
+        <v>49</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="11">
+        <v>50</v>
+      </c>
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
+      <c r="C53" s="11">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B29F3C-3FB5-40EC-90E7-95D5C17CAEE7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1055,7 +1678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B152BEC-73C5-497B-AF21-0A9D9B3E65C7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1176,7 +1799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781894E6-78A1-4138-A136-56A63FE26827}">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -1426,7 +2049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76C42D0-A3E3-43F7-9B02-6BA60347AC84}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -1590,11 +2213,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30A4D0-487C-4F7B-98F5-50B611F676D1}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7633505-5420-4179-A39C-4720DE618B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A79A44C-BCA2-4EF1-BCEF-27A74BC13B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="62">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,10 @@
   </si>
   <si>
     <t>BonusPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillHitTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,10 +291,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -388,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,6 +451,18 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A5111-83AF-41C8-82E3-06AA1F074A7C}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
@@ -2215,21 +2233,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30A4D0-487C-4F7B-98F5-50B611F676D1}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2242,13 +2261,13 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
+      <c r="E1" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="20" t="s">
@@ -2269,8 +2288,11 @@
       <c r="M1" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -2283,35 +2305,38 @@
       <c r="D2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -2324,14 +2349,14 @@
       <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>33</v>
@@ -2343,7 +2368,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>41</v>
@@ -2351,8 +2376,11 @@
       <c r="M3" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -2365,35 +2393,38 @@
       <c r="D4" s="11">
         <v>1</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="24">
+        <v>766</v>
+      </c>
+      <c r="F4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
       <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
         <v>6</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>4</v>
       </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
       <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
         <v>4</v>
       </c>
-      <c r="K4" s="11">
+      <c r="L4" s="11">
         <v>1100</v>
       </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
       <c r="M4" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2406,35 +2437,38 @@
       <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="24">
+        <v>1166</v>
+      </c>
+      <c r="F5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
       <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
         <v>6</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <v>4</v>
       </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
       <c r="J5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
         <v>1600</v>
       </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
       <c r="M5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2447,35 +2481,38 @@
       <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="24">
+        <v>666</v>
+      </c>
+      <c r="F6" s="11">
         <v>3</v>
       </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
       <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
         <v>7</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>5</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
       <c r="J6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11">
         <v>1200</v>
       </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
       <c r="M6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2488,31 +2525,34 @@
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="24">
+        <v>333</v>
+      </c>
+      <c r="F7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
       <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
         <v>6</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>4</v>
       </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
       <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
         <v>3</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <v>700</v>
       </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
       <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A79A44C-BCA2-4EF1-BCEF-27A74BC13B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84194862-7A34-43C4-B907-002A10310205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>SkillHitTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2233,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30A4D0-487C-4F7B-98F5-50B611F676D1}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2246,31 +2250,33 @@
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="20" t="s">
@@ -2291,52 +2297,58 @@
       <c r="N1" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -2349,17 +2361,17 @@
       <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>33</v>
@@ -2371,7 +2383,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>41</v>
@@ -2379,57 +2391,63 @@
       <c r="N3" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5">
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
         <v>766</v>
       </c>
-      <c r="F4" s="11">
-        <v>2</v>
-      </c>
       <c r="G4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
         <v>6</v>
       </c>
-      <c r="I4" s="11">
+      <c r="J4" s="11">
         <v>4</v>
       </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
       <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
         <v>4</v>
       </c>
-      <c r="L4" s="11">
+      <c r="M4" s="11">
         <v>1100</v>
       </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
       <c r="N4" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>46</v>
@@ -2437,38 +2455,41 @@
       <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
         <v>1166</v>
       </c>
-      <c r="F5" s="11">
-        <v>2</v>
-      </c>
       <c r="G5" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
         <v>6</v>
       </c>
-      <c r="I5" s="11">
+      <c r="J5" s="11">
         <v>4</v>
       </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
       <c r="K5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11">
         <v>1600</v>
       </c>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
       <c r="N5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2479,80 +2500,86 @@
         <v>47</v>
       </c>
       <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="24">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
         <v>666</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="11">
         <v>3</v>
       </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
       <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
         <v>7</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
         <v>5</v>
       </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
       <c r="K6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
         <v>1200</v>
       </c>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
       <c r="N6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="24">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24">
         <v>333</v>
       </c>
-      <c r="F7" s="11">
-        <v>2</v>
-      </c>
       <c r="G7" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
         <v>6</v>
       </c>
-      <c r="I7" s="11">
+      <c r="J7" s="11">
         <v>4</v>
       </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
       <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
         <v>3</v>
       </c>
-      <c r="L7" s="11">
+      <c r="M7" s="11">
         <v>700</v>
       </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
       <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84194862-7A34-43C4-B907-002A10310205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FADFA00-183B-49E7-81A6-C00D692ECE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -2240,11 +2240,12 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
@@ -2262,13 +2263,13 @@
         <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>19</v>
@@ -2309,13 +2310,13 @@
         <v>62</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>61</v>
@@ -2356,10 +2357,10 @@
         <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>33</v>
@@ -2402,14 +2403,14 @@
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
       <c r="E4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="24">
         <v>766</v>
@@ -2449,11 +2450,11 @@
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -2496,14 +2497,14 @@
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>2</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
       </c>
       <c r="F6" s="24">
         <v>666</v>
@@ -2543,14 +2544,14 @@
       <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>3</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
       </c>
       <c r="F7" s="24">
         <v>333</v>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FADFA00-183B-49E7-81A6-C00D692ECE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E11E2D-96EA-4B27-B7C2-3BD6308E5690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="4665" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,14 @@
   </si>
   <si>
     <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2237,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30A4D0-487C-4F7B-98F5-50B611F676D1}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2255,35 +2263,35 @@
     <col min="10" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
+      <c r="C1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>19</v>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K1" s="20" t="s">
@@ -2301,8 +2309,14 @@
       <c r="O1" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -2310,46 +2324,52 @@
         <v>62</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -2360,25 +2380,25 @@
         <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>58</v>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>41</v>
+      <c r="H3" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>33</v>
@@ -2387,16 +2407,22 @@
         <v>33</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -2404,46 +2430,52 @@
         <v>1</v>
       </c>
       <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
         <v>766</v>
       </c>
-      <c r="G4" s="11">
+      <c r="I4" s="11">
         <v>2</v>
       </c>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
         <v>6</v>
-      </c>
-      <c r="J4" s="11">
-        <v>4</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
       </c>
       <c r="L4" s="11">
         <v>4</v>
       </c>
       <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>4</v>
+      </c>
+      <c r="O4" s="11">
         <v>1100</v>
       </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2453,44 +2485,50 @@
       <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="24">
         <v>1166</v>
       </c>
-      <c r="G5" s="11">
+      <c r="I5" s="11">
         <v>2</v>
       </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
         <v>6</v>
       </c>
-      <c r="J5" s="11">
+      <c r="L5" s="11">
         <v>4</v>
       </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
       <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1</v>
+      </c>
+      <c r="O5" s="11">
         <v>1600</v>
       </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2498,46 +2536,52 @@
         <v>2</v>
       </c>
       <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="11">
+      <c r="G6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="24">
+      <c r="H6" s="24">
         <v>666</v>
       </c>
-      <c r="G6" s="11">
+      <c r="I6" s="11">
         <v>3</v>
       </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
         <v>7</v>
       </c>
-      <c r="J6" s="11">
+      <c r="L6" s="11">
         <v>5</v>
       </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
       <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11">
         <v>1200</v>
       </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2545,42 +2589,48 @@
         <v>1</v>
       </c>
       <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="11">
+      <c r="G7" s="11">
         <v>3</v>
       </c>
-      <c r="F7" s="24">
+      <c r="H7" s="24">
         <v>333</v>
       </c>
-      <c r="G7" s="11">
+      <c r="I7" s="11">
         <v>2</v>
       </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
         <v>6</v>
       </c>
-      <c r="J7" s="11">
+      <c r="L7" s="11">
         <v>4</v>
       </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
         <v>3</v>
       </c>
-      <c r="M7" s="11">
+      <c r="O7" s="11">
         <v>700</v>
       </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E11E2D-96EA-4B27-B7C2-3BD6308E5690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19266659-A7C2-4BD1-887F-C0E6CC367B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="4665" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쌍검독뎀충</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쌍검 및 독을 이용하여 근적 공격을 합니다.\n무기가2개!데미지도2배!무서움도2배!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +292,10 @@
   </si>
   <si>
     <t>ProjectileSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍검독뎀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFD4994-7B30-4537-97A9-4C5850CC400A}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -949,10 +949,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="9">
         <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!B$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!B$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!B$6))) / 100</f>
@@ -1003,35 +1003,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1595,7 +1595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B29F3C-3FB5-40EC-90E7-95D5C17CAEE7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1605,16 +1607,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1622,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1636,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1689,7 +1691,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -1713,7 +1715,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1726,16 +1728,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1743,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1757,13 +1759,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1810,7 +1812,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B7" s="9">
         <v>13</v>
@@ -1834,7 +1836,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1850,34 +1852,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1885,31 +1887,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1917,31 +1919,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2042,7 +2044,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -2100,25 +2102,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2149,27 +2151,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="19">
         <v>8</v>
@@ -2192,7 +2194,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="19">
         <v>5</v>
@@ -2215,7 +2217,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="19">
         <v>3</v>
@@ -2247,7 +2249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30A4D0-487C-4F7B-98F5-50B611F676D1}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2265,102 +2267,102 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>10</v>
@@ -2371,55 +2373,55 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2439,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
@@ -2492,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -2545,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="11">
         <v>2</v>
@@ -2598,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="11">
         <v>3</v>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19266659-A7C2-4BD1-887F-C0E6CC367B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF4A171-CAF5-4E9A-BE56-2885EF0962D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Face</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint8_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,6 +292,10 @@
   </si>
   <si>
     <t>쌍검독뎀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eyes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFD4994-7B30-4537-97A9-4C5850CC400A}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -949,7 +949,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -1003,7 +1003,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>22</v>
@@ -1014,24 +1014,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1607,7 +1607,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>18</v>
@@ -1638,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1691,7 +1691,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -1728,7 +1728,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>18</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1759,13 +1759,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1812,7 +1812,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="9">
         <v>13</v>
@@ -1835,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781894E6-78A1-4138-A136-56A63FE26827}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1852,7 +1852,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>22</v>
@@ -1911,7 +1911,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1919,31 +1919,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1951,25 +1951,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="11">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <v>0</v>
@@ -2021,19 +2021,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
       </c>
       <c r="F6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <v>0</v>
@@ -2044,28 +2044,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
       </c>
       <c r="F7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <v>0</v>
@@ -2102,7 +2102,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>18</v>
@@ -2151,27 +2151,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="19">
         <v>8</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="19">
         <v>5</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="19">
         <v>3</v>
@@ -2320,49 +2320,49 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>10</v>
@@ -2373,55 +2373,55 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="11">
         <v>2</v>
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="11">
         <v>3</v>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF4A171-CAF5-4E9A-BE56-2885EF0962D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F37513-3D3D-4E3D-8CD1-DABB03CBF3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1836,7 +1836,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1918,32 +1918,32 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>31</v>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1951,10 +1951,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>0</v>
+        <v>10003</v>
       </c>
       <c r="C4" s="11">
-        <v>0</v>
+        <v>20001</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F37513-3D3D-4E3D-8CD1-DABB03CBF3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21D8F15-ABF8-40FF-834A-CF3CB204DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="67">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,14 @@
   </si>
   <si>
     <t>Eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,31 +764,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFD4994-7B30-4537-97A9-4C5850CC400A}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="10" customWidth="1"/>
-    <col min="4" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="14.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="10" customWidth="1"/>
+    <col min="5" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="14.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10"/>
+    <col min="9" max="9" width="14.125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -798,42 +806,48 @@
       <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>16</v>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>16</v>
@@ -850,133 +864,183 @@
       <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D4" s="9">
         <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!B$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!B$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!B$6))) / 100</f>
         <v>0.8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E4" s="9">
         <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!C$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!C$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!C$6))) / 100</f>
         <v>0.2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!D$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!D$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!D$6))) / 100</f>
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!E$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!E$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!E$6))) / 100</f>
         <v>0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!F$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!F$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!F$6))) / 100</f>
         <v>0.7</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <f>(((CharacterCreateStat!$B4) * (CharacterAbilityByStat!G$4)) + ((CharacterCreateStat!$C4) * (CharacterAbilityByStat!G$5)) + ((CharacterCreateStat!$D4) * (CharacterAbilityByStat!G$6))) / 100</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D5" s="9">
         <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!B$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!B$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!B$6))) / 100</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="D5" s="9">
+      <c r="E5" s="9">
         <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!C$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!C$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!C$6))) / 100</f>
         <v>0.44</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9">
         <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!D$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!D$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!D$6))) / 100</f>
         <v>0.84</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
         <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!E$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!E$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!E$6))) / 100</f>
         <v>0.16</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!F$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!F$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!F$6))) / 100</f>
         <v>0.62</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <f>(((CharacterCreateStat!$B5) * (CharacterAbilityByStat!G$4)) + ((CharacterCreateStat!$C5) * (CharacterAbilityByStat!G$5)) + ((CharacterCreateStat!$D5) * (CharacterAbilityByStat!G$6))) / 100</f>
         <v>0.38</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9">
+      <c r="D6" s="9">
         <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!B$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!B$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!B$6))) / 100</f>
         <v>0.32400000000000001</v>
       </c>
-      <c r="D6" s="9">
+      <c r="E6" s="9">
         <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!C$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!C$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!C$6))) / 100</f>
         <v>0.70599999999999996</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="9">
         <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!D$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!D$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!D$6))) / 100</f>
         <v>0.03</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!E$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!E$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!E$6))) / 100</f>
         <v>1</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!F$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!F$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!F$6))) / 100</f>
         <v>0.32100000000000001</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <f>(((CharacterCreateStat!$B6) * (CharacterAbilityByStat!G$4)) + ((CharacterCreateStat!$C6) * (CharacterAbilityByStat!G$5)) + ((CharacterCreateStat!$D6) * (CharacterAbilityByStat!G$6))) / 100</f>
         <v>0.70900000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9">
+      <c r="D7" s="9">
         <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!B$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!B$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!B$6))) / 100</f>
         <v>0.5</v>
       </c>
-      <c r="D7" s="9">
+      <c r="E7" s="9">
         <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!C$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!C$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!C$6))) / 100</f>
         <v>0.5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!D$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!D$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!D$6))) / 100</f>
         <v>0.8</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!E$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!E$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!E$6))) / 100</f>
         <v>0.2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!F$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!F$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!F$6))) / 100</f>
         <v>0.6</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <f>(((CharacterCreateStat!$B7) * (CharacterAbilityByStat!G$4)) + ((CharacterCreateStat!$C7) * (CharacterAbilityByStat!G$5)) + ((CharacterCreateStat!$D7) * (CharacterAbilityByStat!G$6))) / 100</f>
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>255</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9">
+        <f>(((CharacterCreateStat!$B8) * (CharacterAbilityByStat!B$4)) + ((CharacterCreateStat!$C8) * (CharacterAbilityByStat!B$5)) + ((CharacterCreateStat!$D8) * (CharacterAbilityByStat!B$6))) / 100</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <f>(((CharacterCreateStat!$B8) * (CharacterAbilityByStat!C$4)) + ((CharacterCreateStat!$C8) * (CharacterAbilityByStat!C$5)) + ((CharacterCreateStat!$D8) * (CharacterAbilityByStat!C$6))) / 100</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <f>(((CharacterCreateStat!$B8) * (CharacterAbilityByStat!D$4)) + ((CharacterCreateStat!$C8) * (CharacterAbilityByStat!D$5)) + ((CharacterCreateStat!$D8) * (CharacterAbilityByStat!D$6))) / 100</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f>(((CharacterCreateStat!$B8) * (CharacterAbilityByStat!E$4)) + ((CharacterCreateStat!$C8) * (CharacterAbilityByStat!E$5)) + ((CharacterCreateStat!$D8) * (CharacterAbilityByStat!E$6))) / 100</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f>(((CharacterCreateStat!$B8) * (CharacterAbilityByStat!F$4)) + ((CharacterCreateStat!$C8) * (CharacterAbilityByStat!F$5)) + ((CharacterCreateStat!$D8) * (CharacterAbilityByStat!F$6))) / 100</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <f>(((CharacterCreateStat!$B8) * (CharacterAbilityByStat!G$4)) + ((CharacterCreateStat!$C8) * (CharacterAbilityByStat!G$5)) + ((CharacterCreateStat!$D8) * (CharacterAbilityByStat!G$6))) / 100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +1055,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1835,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781894E6-78A1-4138-A136-56A63FE26827}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/Document/Data/Character/Character.xlsx
+++ b/Document/Data/Character/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21D8F15-ABF8-40FF-834A-CF3CB204DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755ACCD-DCC7-4CBC-9C51-307D98F7B91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6010" yWindow="5510" windowWidth="28800" windowHeight="15370" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobExplain" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -766,19 +765,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFD4994-7B30-4537-97A9-4C5850CC400A}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="90.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="10" customWidth="1"/>
     <col min="5" max="6" width="9" style="10"/>
     <col min="7" max="7" width="14.25" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="10"/>
-    <col min="9" max="9" width="14.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08203125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1058,7 +1057,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="14.25" style="10" customWidth="1"/>
@@ -1663,10 +1662,10 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="7.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.08203125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1782,12 +1781,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1899,18 +1898,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781894E6-78A1-4138-A136-56A63FE26827}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2015,10 +2014,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>10003</v>
+        <v>0</v>
       </c>
       <c r="C4" s="11">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -2153,14 +2152,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.08203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.58203125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="15" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.08203125" style="15" customWidth="1"/>
     <col min="8" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
@@ -2317,16 +2316,16 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="19.58203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
